--- a/Code/Results/Cases/Case_2_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_164/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.05577143252133</v>
+        <v>15.04611075275231</v>
       </c>
       <c r="C2">
-        <v>18.21978173041069</v>
+        <v>10.96054116066838</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.34939613656383</v>
+        <v>26.3633038781184</v>
       </c>
       <c r="F2">
-        <v>32.83887648967099</v>
+        <v>37.25174455987145</v>
       </c>
       <c r="G2">
-        <v>11.05397067934124</v>
+        <v>16.46401062349421</v>
       </c>
       <c r="H2">
-        <v>5.945765552632473</v>
+        <v>11.31324375025298</v>
       </c>
       <c r="I2">
-        <v>7.649020657779876</v>
+        <v>15.21513753360844</v>
       </c>
       <c r="J2">
-        <v>3.809417869661843</v>
+        <v>7.140670539969022</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.372326182861963</v>
+        <v>15.55679373266467</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.45431858036138</v>
+        <v>14.18553567165188</v>
       </c>
       <c r="C3">
-        <v>17.11828581401801</v>
+        <v>10.35457268951409</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.8565835080941</v>
+        <v>26.03240471993254</v>
       </c>
       <c r="F3">
-        <v>31.25124004015092</v>
+        <v>37.07414304041676</v>
       </c>
       <c r="G3">
-        <v>10.89646748497674</v>
+        <v>16.65597903237424</v>
       </c>
       <c r="H3">
-        <v>6.103274058611979</v>
+        <v>11.38593106092411</v>
       </c>
       <c r="I3">
-        <v>8.110403196172761</v>
+        <v>15.37345971912739</v>
       </c>
       <c r="J3">
-        <v>3.877306254835428</v>
+        <v>7.167891829517322</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.572600215898976</v>
+        <v>15.69172910135928</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.41359532325114</v>
+        <v>13.62806503764386</v>
       </c>
       <c r="C4">
-        <v>16.4048384898767</v>
+        <v>9.962567813385331</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.90756036003236</v>
+        <v>25.83240447746792</v>
       </c>
       <c r="F4">
-        <v>30.26958424678733</v>
+        <v>36.97670805082707</v>
       </c>
       <c r="G4">
-        <v>10.85225162204448</v>
+        <v>16.78543430866813</v>
       </c>
       <c r="H4">
-        <v>6.206401440890179</v>
+        <v>11.43314453608169</v>
       </c>
       <c r="I4">
-        <v>8.400740604294802</v>
+        <v>15.47543336176097</v>
       </c>
       <c r="J4">
-        <v>3.920627455236694</v>
+        <v>7.185518762329643</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.714506907497434</v>
+        <v>15.77997731378135</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.97505237506082</v>
+        <v>13.39370027933022</v>
       </c>
       <c r="C5">
-        <v>16.10484495639747</v>
+        <v>9.797906278108581</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.51299954966769</v>
+        <v>25.75178950003703</v>
       </c>
       <c r="F5">
-        <v>29.86836680139761</v>
+        <v>36.93995253649835</v>
       </c>
       <c r="G5">
-        <v>10.84673685203481</v>
+        <v>16.84106179735047</v>
       </c>
       <c r="H5">
-        <v>6.249957344852466</v>
+        <v>11.45303417820285</v>
       </c>
       <c r="I5">
-        <v>8.520875991357119</v>
+        <v>15.51818977108192</v>
       </c>
       <c r="J5">
-        <v>3.938690963637337</v>
+        <v>7.192931963521472</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.776705437355115</v>
+        <v>15.81729239452477</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.90136091639645</v>
+        <v>13.35435393859508</v>
       </c>
       <c r="C6">
-        <v>16.05447491824716</v>
+        <v>9.770270681064556</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.44702157825732</v>
+        <v>25.73845956494397</v>
       </c>
       <c r="F6">
-        <v>29.80169059648779</v>
+        <v>36.93402826181288</v>
       </c>
       <c r="G6">
-        <v>10.84655299344017</v>
+        <v>16.85047109001479</v>
       </c>
       <c r="H6">
-        <v>6.257279996522152</v>
+        <v>11.45637608938344</v>
       </c>
       <c r="I6">
-        <v>8.540935733561993</v>
+        <v>15.52536210256142</v>
       </c>
       <c r="J6">
-        <v>3.94171509871332</v>
+        <v>7.194176831557439</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.787286616618116</v>
+        <v>15.82357015306349</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.40773943178256</v>
+        <v>13.62493324942157</v>
       </c>
       <c r="C7">
-        <v>16.40083003475774</v>
+        <v>9.960366892571901</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.90227036801342</v>
+        <v>25.83131356919707</v>
       </c>
       <c r="F7">
-        <v>30.26417731871922</v>
+        <v>36.97620037284013</v>
       </c>
       <c r="G7">
-        <v>10.85212765550356</v>
+        <v>16.78617293851086</v>
       </c>
       <c r="H7">
-        <v>6.206982755187479</v>
+        <v>11.43341014357608</v>
       </c>
       <c r="I7">
-        <v>8.402353357444268</v>
+        <v>15.47600512080691</v>
       </c>
       <c r="J7">
-        <v>3.920869409026759</v>
+        <v>7.185617807073188</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.715328535870288</v>
+        <v>15.7804750840548</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.5155031746779</v>
+        <v>14.75548245479289</v>
       </c>
       <c r="C8">
-        <v>17.84772909186854</v>
+        <v>10.75579330810931</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25.84157747533548</v>
+        <v>26.24860499705185</v>
       </c>
       <c r="F8">
-        <v>32.29317511097057</v>
+        <v>37.18811664537455</v>
       </c>
       <c r="G8">
-        <v>10.98840284989492</v>
+        <v>16.52777247644767</v>
       </c>
       <c r="H8">
-        <v>5.998689466461887</v>
+        <v>11.33777031701402</v>
       </c>
       <c r="I8">
-        <v>7.806672496863179</v>
+        <v>15.26874058837971</v>
       </c>
       <c r="J8">
-        <v>3.832484531147173</v>
+        <v>7.149867267390371</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.437204111859984</v>
+        <v>15.60219678386414</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.19412385752678</v>
+        <v>16.73779829651475</v>
       </c>
       <c r="C9">
-        <v>20.38843719821224</v>
+        <v>12.15412482338277</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>29.37678180279764</v>
+        <v>27.08812788675933</v>
       </c>
       <c r="F9">
-        <v>36.19856710547829</v>
+        <v>37.69428798973411</v>
       </c>
       <c r="G9">
-        <v>11.69351010283234</v>
+        <v>16.11479052181018</v>
       </c>
       <c r="H9">
-        <v>5.645487308187485</v>
+        <v>11.17070775388304</v>
       </c>
       <c r="I9">
-        <v>6.692200992568904</v>
+        <v>14.89992395063834</v>
       </c>
       <c r="J9">
-        <v>3.672281078186722</v>
+        <v>7.086980872810811</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>8.061313106719776</v>
+        <v>15.29560352597122</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.62198132582767</v>
+        <v>18.04720459732215</v>
       </c>
       <c r="C10">
-        <v>22.0729338594645</v>
+        <v>13.07970375981681</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>31.80180388913557</v>
+        <v>27.71251708452303</v>
       </c>
       <c r="F10">
-        <v>39.00360121471274</v>
+        <v>38.11902850127653</v>
       </c>
       <c r="G10">
-        <v>12.50689788023183</v>
+        <v>15.87102835737547</v>
       </c>
       <c r="H10">
-        <v>5.426785277685441</v>
+        <v>11.06044319924986</v>
       </c>
       <c r="I10">
-        <v>5.902962663081602</v>
+        <v>14.65165990312714</v>
       </c>
       <c r="J10">
-        <v>3.562824164855773</v>
+        <v>7.045146842234215</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.916995222054584</v>
+        <v>15.09683182604299</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.66754252922451</v>
+        <v>18.61045508113943</v>
       </c>
       <c r="C11">
-        <v>22.79975637454431</v>
+        <v>13.47822004851101</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>32.86690635824125</v>
+        <v>27.997088419508</v>
       </c>
       <c r="F11">
-        <v>40.2633347464695</v>
+        <v>38.32313520087832</v>
       </c>
       <c r="G11">
-        <v>13.04825498186053</v>
+        <v>15.77363317837518</v>
       </c>
       <c r="H11">
-        <v>5.338071294218562</v>
+        <v>11.01298831120167</v>
       </c>
       <c r="I11">
-        <v>5.549690067763748</v>
+        <v>14.54359864880646</v>
       </c>
       <c r="J11">
-        <v>3.514901298329134</v>
+        <v>7.02705708993967</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.886514705063943</v>
+        <v>15.01221681444934</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.05507227767723</v>
+        <v>18.81905531270576</v>
       </c>
       <c r="C12">
-        <v>23.06932961252528</v>
+        <v>13.62586117135335</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>33.26476924730865</v>
+        <v>28.10483215457156</v>
       </c>
       <c r="F12">
-        <v>40.73792608238781</v>
+        <v>38.40193516945716</v>
       </c>
       <c r="G12">
-        <v>13.25913145946142</v>
+        <v>15.73873765185682</v>
       </c>
       <c r="H12">
-        <v>5.30621684796643</v>
+        <v>10.99540742441068</v>
       </c>
       <c r="I12">
-        <v>5.416697815191187</v>
+        <v>14.50337602320876</v>
       </c>
       <c r="J12">
-        <v>3.497032443001671</v>
+        <v>7.020341743093763</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.880573209299885</v>
+        <v>14.98101597603151</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.97198334467482</v>
+        <v>18.77433852308106</v>
       </c>
       <c r="C13">
-        <v>23.01152349567805</v>
+        <v>13.59420974153138</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>33.17932500750525</v>
+        <v>28.08162985553969</v>
       </c>
       <c r="F13">
-        <v>40.63582373482826</v>
+        <v>38.3848980042543</v>
       </c>
       <c r="G13">
-        <v>13.21346042777892</v>
+        <v>15.7461639792655</v>
       </c>
       <c r="H13">
-        <v>5.312996602178878</v>
+        <v>10.9991764660111</v>
       </c>
       <c r="I13">
-        <v>5.445305764550429</v>
+        <v>14.51200770050189</v>
       </c>
       <c r="J13">
-        <v>3.500868256809348</v>
+        <v>7.021782022474383</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.881595243151216</v>
+        <v>14.98769813213881</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.69959281059535</v>
+        <v>18.62771089543075</v>
       </c>
       <c r="C14">
-        <v>22.82204760575478</v>
+        <v>13.49043220895106</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>32.89974818429167</v>
+        <v>28.00595343835118</v>
       </c>
       <c r="F14">
-        <v>40.30242890581712</v>
+        <v>38.32958821244942</v>
       </c>
       <c r="G14">
-        <v>13.06548843919525</v>
+        <v>15.77072224104666</v>
       </c>
       <c r="H14">
-        <v>5.335414565168572</v>
+        <v>11.01153411816053</v>
       </c>
       <c r="I14">
-        <v>5.538733205257363</v>
+        <v>14.54027554214458</v>
       </c>
       <c r="J14">
-        <v>3.513425572136843</v>
+        <v>7.026501914158183</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.885910589629817</v>
+        <v>15.00963301214495</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.531653694762</v>
+        <v>18.53728564541795</v>
       </c>
       <c r="C15">
-        <v>22.70525188380296</v>
+        <v>13.42643913582009</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>32.72778807632391</v>
+        <v>27.95959444571434</v>
       </c>
       <c r="F15">
-        <v>40.09789523941782</v>
+        <v>38.29590416635626</v>
       </c>
       <c r="G15">
-        <v>12.97560465737975</v>
+        <v>15.78602486113423</v>
       </c>
       <c r="H15">
-        <v>5.349378842707949</v>
+        <v>11.01915423775706</v>
       </c>
       <c r="I15">
-        <v>5.596061251657872</v>
+        <v>14.5576811934044</v>
       </c>
       <c r="J15">
-        <v>3.52115388300557</v>
+        <v>7.029410532888922</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.88929912698583</v>
+        <v>15.02317846772113</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.55247199890001</v>
+        <v>18.00973993993271</v>
       </c>
       <c r="C16">
-        <v>22.02464132702831</v>
+        <v>13.05320377376299</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>31.73143045996634</v>
+        <v>27.69392233753337</v>
       </c>
       <c r="F16">
-        <v>38.92093653858579</v>
+        <v>38.10590400832146</v>
       </c>
       <c r="G16">
-        <v>12.47236341537329</v>
+        <v>15.87766878109417</v>
       </c>
       <c r="H16">
-        <v>5.432815448252852</v>
+        <v>11.06359894145612</v>
       </c>
       <c r="I16">
-        <v>5.92616177216027</v>
+        <v>14.65881978643286</v>
       </c>
       <c r="J16">
-        <v>3.565994433168318</v>
+        <v>7.046347943596007</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.919741643934823</v>
+        <v>15.10247897568053</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.93673855121364</v>
+        <v>17.67778310590272</v>
       </c>
       <c r="C17">
-        <v>21.5970092845981</v>
+        <v>12.81844206250405</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>31.1104387477798</v>
+        <v>27.53101030210025</v>
       </c>
       <c r="F17">
-        <v>38.19464220077434</v>
+        <v>37.99209497308571</v>
       </c>
       <c r="G17">
-        <v>12.24082101553121</v>
+        <v>15.93737779046061</v>
       </c>
       <c r="H17">
-        <v>5.486888237133506</v>
+        <v>11.09155732107206</v>
       </c>
       <c r="I17">
-        <v>6.130108484731812</v>
+        <v>14.7221114071281</v>
       </c>
       <c r="J17">
-        <v>3.593987699810171</v>
+        <v>7.056979138591172</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.947814982706413</v>
+        <v>15.15261879639971</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.5770381122688</v>
+        <v>17.48380136130296</v>
       </c>
       <c r="C18">
-        <v>21.34733045652917</v>
+        <v>12.68129344220677</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>30.74967576548412</v>
+        <v>27.43736334664263</v>
       </c>
       <c r="F18">
-        <v>37.77536451025178</v>
+        <v>37.92766368388038</v>
       </c>
       <c r="G18">
-        <v>12.11671455991095</v>
+        <v>15.97298817162604</v>
       </c>
       <c r="H18">
-        <v>5.518990766655559</v>
+        <v>11.10789283005466</v>
       </c>
       <c r="I18">
-        <v>6.247957238586147</v>
+        <v>14.7589741516594</v>
       </c>
       <c r="J18">
-        <v>3.610263966101507</v>
+        <v>7.063182494566678</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.967240009584548</v>
+        <v>15.18200412679897</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.45429517536721</v>
+        <v>17.41759990802797</v>
       </c>
       <c r="C19">
-        <v>21.26215492167414</v>
+        <v>12.63449415983349</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>30.62691255930343</v>
+        <v>27.40566856434466</v>
       </c>
       <c r="F19">
-        <v>37.63314542049564</v>
+        <v>37.90602670366069</v>
       </c>
       <c r="G19">
-        <v>12.07568211240262</v>
+        <v>15.98526151214902</v>
       </c>
       <c r="H19">
-        <v>5.530026716100322</v>
+        <v>11.11346747121408</v>
       </c>
       <c r="I19">
-        <v>6.287953693954609</v>
+        <v>14.77153418989463</v>
       </c>
       <c r="J19">
-        <v>3.615804676063192</v>
+        <v>7.065298070188154</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.974363250260049</v>
+        <v>15.19204713336427</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.00285805388633</v>
+        <v>17.71343628494787</v>
       </c>
       <c r="C20">
-        <v>21.64291597364922</v>
+        <v>12.84365247472219</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>31.1769155297185</v>
+        <v>27.54834748457822</v>
       </c>
       <c r="F20">
-        <v>38.27211704130403</v>
+        <v>38.00410407750842</v>
       </c>
       <c r="G20">
-        <v>12.2642583101775</v>
+        <v>15.93089016937915</v>
       </c>
       <c r="H20">
-        <v>5.481027168642059</v>
+        <v>11.08855475307515</v>
       </c>
       <c r="I20">
-        <v>6.108342049978134</v>
+        <v>14.71532641669293</v>
       </c>
       <c r="J20">
-        <v>3.590989565132174</v>
+        <v>7.055838265817223</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.944483291773528</v>
+        <v>15.14722475160665</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.7798279668715</v>
+        <v>18.67090648174124</v>
       </c>
       <c r="C21">
-        <v>22.87785466192179</v>
+        <v>13.52100307401846</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>32.98201482280369</v>
+        <v>28.02818264371713</v>
       </c>
       <c r="F21">
-        <v>40.40042174450712</v>
+        <v>38.3457935491705</v>
       </c>
       <c r="G21">
-        <v>13.10879510732956</v>
+        <v>15.76345462441722</v>
       </c>
       <c r="H21">
-        <v>5.328781011127531</v>
+        <v>11.00789380959336</v>
       </c>
       <c r="I21">
-        <v>5.511270305883429</v>
+        <v>14.53195367866847</v>
       </c>
       <c r="J21">
-        <v>3.509729537921209</v>
+        <v>7.025111911163284</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.884486811020625</v>
+        <v>15.00316733208366</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.89224559474891</v>
+        <v>19.26932069822082</v>
       </c>
       <c r="C22">
-        <v>23.65199002575389</v>
+        <v>13.9446324007388</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>34.12991223909504</v>
+        <v>28.34164002044952</v>
       </c>
       <c r="F22">
-        <v>41.77716413248358</v>
+        <v>38.57787547860512</v>
       </c>
       <c r="G22">
-        <v>13.73302119981942</v>
+        <v>15.6656222713431</v>
       </c>
       <c r="H22">
-        <v>5.239525871415536</v>
+        <v>10.95744623181193</v>
       </c>
       <c r="I22">
-        <v>5.125610541800564</v>
+        <v>14.41617497939826</v>
       </c>
       <c r="J22">
-        <v>3.458250860742389</v>
+        <v>7.005816275852853</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.878158231991855</v>
+        <v>14.91392259948948</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.30298118542284</v>
+        <v>18.95244593412907</v>
       </c>
       <c r="C23">
-        <v>23.24182804717441</v>
+        <v>13.72028468892436</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>33.52015794730532</v>
+        <v>28.17438547521919</v>
       </c>
       <c r="F23">
-        <v>41.04368554034738</v>
+        <v>38.45322630834846</v>
       </c>
       <c r="G23">
-        <v>13.39687097396176</v>
+        <v>15.71676114245119</v>
       </c>
       <c r="H23">
-        <v>5.286155927781119</v>
+        <v>10.98416333362951</v>
       </c>
       <c r="I23">
-        <v>5.331038272630703</v>
+        <v>14.47759727352392</v>
       </c>
       <c r="J23">
-        <v>3.485573111930861</v>
+        <v>7.016042957577954</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.878352649322566</v>
+        <v>14.96110333764438</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.97298320789078</v>
+        <v>17.6973272461799</v>
       </c>
       <c r="C24">
-        <v>21.62217348234903</v>
+        <v>12.83226163850307</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>31.14687304606761</v>
+        <v>27.54050929558542</v>
       </c>
       <c r="F24">
-        <v>38.23709601916573</v>
+        <v>37.99867164508593</v>
       </c>
       <c r="G24">
-        <v>12.25364466204275</v>
+        <v>15.93381923021146</v>
       </c>
       <c r="H24">
-        <v>5.483673809151013</v>
+        <v>11.08991139836833</v>
       </c>
       <c r="I24">
-        <v>6.118180791935594</v>
+        <v>14.71839242927098</v>
       </c>
       <c r="J24">
-        <v>3.592344453872086</v>
+        <v>7.056353769841622</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.945979357804749</v>
+        <v>15.14966165753658</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.24743924945242</v>
+        <v>16.22712629304014</v>
       </c>
       <c r="C25">
-        <v>19.73306997400488</v>
+        <v>11.79352313188887</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>28.45025511583392</v>
+        <v>26.85929520980517</v>
       </c>
       <c r="F25">
-        <v>35.15225099015039</v>
+        <v>37.54788349597856</v>
       </c>
       <c r="G25">
-        <v>11.45364347745063</v>
+        <v>16.21622010880894</v>
       </c>
       <c r="H25">
-        <v>5.734453591696444</v>
+        <v>11.21371088856975</v>
       </c>
       <c r="I25">
-        <v>6.988276560628798</v>
+        <v>14.99569451517753</v>
       </c>
       <c r="J25">
-        <v>3.714194956752563</v>
+        <v>7.103223774195043</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>8.142014618557699</v>
+        <v>15.37391439266611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_164/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.04611075275231</v>
+        <v>25.05577143252134</v>
       </c>
       <c r="C2">
-        <v>10.96054116066838</v>
+        <v>18.21978173041058</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.3633038781184</v>
+        <v>26.3493961365638</v>
       </c>
       <c r="F2">
-        <v>37.25174455987145</v>
+        <v>32.83887648967096</v>
       </c>
       <c r="G2">
-        <v>16.46401062349421</v>
+        <v>11.05397067934123</v>
       </c>
       <c r="H2">
-        <v>11.31324375025298</v>
+        <v>5.945765552632523</v>
       </c>
       <c r="I2">
-        <v>15.21513753360844</v>
+        <v>7.649020657779841</v>
       </c>
       <c r="J2">
-        <v>7.140670539969022</v>
+        <v>3.809417869661781</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.55679373266467</v>
+        <v>8.372326182861967</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.18553567165188</v>
+        <v>23.45431858036135</v>
       </c>
       <c r="C3">
-        <v>10.35457268951409</v>
+        <v>17.11828581401802</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26.03240471993254</v>
+        <v>24.85658350809409</v>
       </c>
       <c r="F3">
-        <v>37.07414304041676</v>
+        <v>31.25124004015093</v>
       </c>
       <c r="G3">
-        <v>16.65597903237424</v>
+        <v>10.89646748497675</v>
       </c>
       <c r="H3">
-        <v>11.38593106092411</v>
+        <v>6.103274058611977</v>
       </c>
       <c r="I3">
-        <v>15.37345971912739</v>
+        <v>8.110403196172831</v>
       </c>
       <c r="J3">
-        <v>7.167891829517322</v>
+        <v>3.877306254835397</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.69172910135928</v>
+        <v>8.572600215899019</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.62806503764386</v>
+        <v>22.41359532325103</v>
       </c>
       <c r="C4">
-        <v>9.962567813385331</v>
+        <v>16.40483848987677</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.83240447746792</v>
+        <v>23.90756036003235</v>
       </c>
       <c r="F4">
-        <v>36.97670805082707</v>
+        <v>30.26958424678732</v>
       </c>
       <c r="G4">
-        <v>16.78543430866813</v>
+        <v>10.85225162204442</v>
       </c>
       <c r="H4">
-        <v>11.43314453608169</v>
+        <v>6.206401440890241</v>
       </c>
       <c r="I4">
-        <v>15.47543336176097</v>
+        <v>8.400740604294899</v>
       </c>
       <c r="J4">
-        <v>7.185518762329643</v>
+        <v>3.920627455236727</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.77997731378135</v>
+        <v>8.714506907497498</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.39370027933022</v>
+        <v>21.97505237506088</v>
       </c>
       <c r="C5">
-        <v>9.797906278108581</v>
+        <v>16.10484495639754</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.75178950003703</v>
+        <v>23.51299954966768</v>
       </c>
       <c r="F5">
-        <v>36.93995253649835</v>
+        <v>29.86836680139752</v>
       </c>
       <c r="G5">
-        <v>16.84106179735047</v>
+        <v>10.84673685203463</v>
       </c>
       <c r="H5">
-        <v>11.45303417820285</v>
+        <v>6.249957344852337</v>
       </c>
       <c r="I5">
-        <v>15.51818977108192</v>
+        <v>8.520875991356954</v>
       </c>
       <c r="J5">
-        <v>7.192931963521472</v>
+        <v>3.938690963637304</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.81729239452477</v>
+        <v>8.776705437354966</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.35435393859508</v>
+        <v>21.9013609163964</v>
       </c>
       <c r="C6">
-        <v>9.770270681064556</v>
+        <v>16.05447491824721</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.73845956494397</v>
+        <v>23.44702157825726</v>
       </c>
       <c r="F6">
-        <v>36.93402826181288</v>
+        <v>29.8016905964878</v>
       </c>
       <c r="G6">
-        <v>16.85047109001479</v>
+        <v>10.84655299344052</v>
       </c>
       <c r="H6">
-        <v>11.45637608938344</v>
+        <v>6.257279996522161</v>
       </c>
       <c r="I6">
-        <v>15.52536210256142</v>
+        <v>8.540935733562158</v>
       </c>
       <c r="J6">
-        <v>7.194176831557439</v>
+        <v>3.941715098713321</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.82357015306349</v>
+        <v>8.787286616618301</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.62493324942157</v>
+        <v>22.40773943178254</v>
       </c>
       <c r="C7">
-        <v>9.960366892571901</v>
+        <v>16.40083003475774</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.83131356919707</v>
+        <v>23.90227036801337</v>
       </c>
       <c r="F7">
-        <v>36.97620037284013</v>
+        <v>30.26417731871917</v>
       </c>
       <c r="G7">
-        <v>16.78617293851086</v>
+        <v>10.85212765550359</v>
       </c>
       <c r="H7">
-        <v>11.43341014357608</v>
+        <v>6.206982755187476</v>
       </c>
       <c r="I7">
-        <v>15.47600512080691</v>
+        <v>8.402353357444268</v>
       </c>
       <c r="J7">
-        <v>7.185617807073188</v>
+        <v>3.920869409026758</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.7804750840548</v>
+        <v>8.715328535870288</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.75548245479289</v>
+        <v>24.51550317467791</v>
       </c>
       <c r="C8">
-        <v>10.75579330810931</v>
+        <v>17.84772909186852</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>26.24860499705185</v>
+        <v>25.84157747533548</v>
       </c>
       <c r="F8">
-        <v>37.18811664537455</v>
+        <v>32.29317511097054</v>
       </c>
       <c r="G8">
-        <v>16.52777247644767</v>
+        <v>10.98840284989489</v>
       </c>
       <c r="H8">
-        <v>11.33777031701402</v>
+        <v>5.998689466461884</v>
       </c>
       <c r="I8">
-        <v>15.26874058837971</v>
+        <v>7.806672496863144</v>
       </c>
       <c r="J8">
-        <v>7.149867267390371</v>
+        <v>3.83248453114711</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.60219678386414</v>
+        <v>8.437204111859934</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.73779829651475</v>
+        <v>28.19412385752678</v>
       </c>
       <c r="C9">
-        <v>12.15412482338277</v>
+        <v>20.38843719821219</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>27.08812788675933</v>
+        <v>29.37678180279765</v>
       </c>
       <c r="F9">
-        <v>37.69428798973411</v>
+        <v>36.19856710547835</v>
       </c>
       <c r="G9">
-        <v>16.11479052181018</v>
+        <v>11.69351010283238</v>
       </c>
       <c r="H9">
-        <v>11.17070775388304</v>
+        <v>5.645487308187437</v>
       </c>
       <c r="I9">
-        <v>14.89992395063834</v>
+        <v>6.692200992568901</v>
       </c>
       <c r="J9">
-        <v>7.086980872810811</v>
+        <v>3.672281078186691</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.29560352597122</v>
+        <v>8.061313106719789</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.04720459732215</v>
+        <v>30.62198132582773</v>
       </c>
       <c r="C10">
-        <v>13.07970375981681</v>
+        <v>22.07293385946443</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>27.71251708452303</v>
+        <v>31.80180388913556</v>
       </c>
       <c r="F10">
-        <v>38.11902850127653</v>
+        <v>39.00360121471275</v>
       </c>
       <c r="G10">
-        <v>15.87102835737547</v>
+        <v>12.50689788023189</v>
       </c>
       <c r="H10">
-        <v>11.06044319924986</v>
+        <v>5.42678527768545</v>
       </c>
       <c r="I10">
-        <v>14.65165990312714</v>
+        <v>5.902962663081466</v>
       </c>
       <c r="J10">
-        <v>7.045146842234215</v>
+        <v>3.56282416485565</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.09683182604299</v>
+        <v>7.916995222054542</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.61045508113943</v>
+        <v>31.6675425292245</v>
       </c>
       <c r="C11">
-        <v>13.47822004851101</v>
+        <v>22.79975637454428</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.997088419508</v>
+        <v>32.86690635824122</v>
       </c>
       <c r="F11">
-        <v>38.32313520087832</v>
+        <v>40.26333474646954</v>
       </c>
       <c r="G11">
-        <v>15.77363317837518</v>
+        <v>13.04825498186058</v>
       </c>
       <c r="H11">
-        <v>11.01298831120167</v>
+        <v>5.338071294218528</v>
       </c>
       <c r="I11">
-        <v>14.54359864880646</v>
+        <v>5.549690067763677</v>
       </c>
       <c r="J11">
-        <v>7.02705708993967</v>
+        <v>3.514901298329077</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.01221681444934</v>
+        <v>7.886514705063946</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.81905531270576</v>
+        <v>32.05507227767717</v>
       </c>
       <c r="C12">
-        <v>13.62586117135335</v>
+        <v>23.06932961252516</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>28.10483215457156</v>
+        <v>33.26476924730859</v>
       </c>
       <c r="F12">
-        <v>38.40193516945716</v>
+        <v>40.73792608238784</v>
       </c>
       <c r="G12">
-        <v>15.73873765185682</v>
+        <v>13.25913145946147</v>
       </c>
       <c r="H12">
-        <v>10.99540742441068</v>
+        <v>5.306216847966434</v>
       </c>
       <c r="I12">
-        <v>14.50337602320876</v>
+        <v>5.416697815191311</v>
       </c>
       <c r="J12">
-        <v>7.020341743093763</v>
+        <v>3.497032443001701</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.98101597603151</v>
+        <v>7.880573209300018</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.77433852308106</v>
+        <v>31.97198334467481</v>
       </c>
       <c r="C13">
-        <v>13.59420974153138</v>
+        <v>23.01152349567805</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>28.08162985553969</v>
+        <v>33.17932500750524</v>
       </c>
       <c r="F13">
-        <v>38.3848980042543</v>
+        <v>40.63582373482825</v>
       </c>
       <c r="G13">
-        <v>15.7461639792655</v>
+        <v>13.21346042777897</v>
       </c>
       <c r="H13">
-        <v>10.9991764660111</v>
+        <v>5.312996602178878</v>
       </c>
       <c r="I13">
-        <v>14.51200770050189</v>
+        <v>5.445305764550428</v>
       </c>
       <c r="J13">
-        <v>7.021782022474383</v>
+        <v>3.500868256809316</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.98769813213881</v>
+        <v>7.8815952431512</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.62771089543075</v>
+        <v>31.69959281059538</v>
       </c>
       <c r="C14">
-        <v>13.49043220895106</v>
+        <v>22.82204760575471</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>28.00595343835118</v>
+        <v>32.89974818429169</v>
       </c>
       <c r="F14">
-        <v>38.32958821244942</v>
+        <v>40.30242890581709</v>
       </c>
       <c r="G14">
-        <v>15.77072224104666</v>
+        <v>13.06548843919525</v>
       </c>
       <c r="H14">
-        <v>11.01153411816053</v>
+        <v>5.335414565168399</v>
       </c>
       <c r="I14">
-        <v>14.54027554214458</v>
+        <v>5.538733205257166</v>
       </c>
       <c r="J14">
-        <v>7.026501914158183</v>
+        <v>3.51342557213678</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.00963301214495</v>
+        <v>7.885910589629747</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.53728564541795</v>
+        <v>31.53165369476205</v>
       </c>
       <c r="C15">
-        <v>13.42643913582009</v>
+        <v>22.70525188380283</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>27.95959444571434</v>
+        <v>32.72778807632389</v>
       </c>
       <c r="F15">
-        <v>38.29590416635626</v>
+        <v>40.09789523941782</v>
       </c>
       <c r="G15">
-        <v>15.78602486113423</v>
+        <v>12.9756046573797</v>
       </c>
       <c r="H15">
-        <v>11.01915423775706</v>
+        <v>5.349378842707954</v>
       </c>
       <c r="I15">
-        <v>14.5576811934044</v>
+        <v>5.596061251657835</v>
       </c>
       <c r="J15">
-        <v>7.029410532888922</v>
+        <v>3.521153883005539</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.02317846772113</v>
+        <v>7.889299126985863</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.00973993993271</v>
+        <v>30.55247199889999</v>
       </c>
       <c r="C16">
-        <v>13.05320377376299</v>
+        <v>22.02464132702833</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>27.69392233753337</v>
+        <v>31.73143045996632</v>
       </c>
       <c r="F16">
-        <v>38.10590400832146</v>
+        <v>38.92093653858581</v>
       </c>
       <c r="G16">
-        <v>15.87766878109417</v>
+        <v>12.47236341537334</v>
       </c>
       <c r="H16">
-        <v>11.06359894145612</v>
+        <v>5.432815448252913</v>
       </c>
       <c r="I16">
-        <v>14.65881978643286</v>
+        <v>5.926161772160403</v>
       </c>
       <c r="J16">
-        <v>7.046347943596007</v>
+        <v>3.565994433168255</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.10247897568053</v>
+        <v>7.919741643934902</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.67778310590272</v>
+        <v>29.9367385512136</v>
       </c>
       <c r="C17">
-        <v>12.81844206250405</v>
+        <v>21.59700928459799</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>27.53101030210025</v>
+        <v>31.11043874777981</v>
       </c>
       <c r="F17">
-        <v>37.99209497308571</v>
+        <v>38.1946422007744</v>
       </c>
       <c r="G17">
-        <v>15.93737779046061</v>
+        <v>12.24082101553128</v>
       </c>
       <c r="H17">
-        <v>11.09155732107206</v>
+        <v>5.486888237133577</v>
       </c>
       <c r="I17">
-        <v>14.7221114071281</v>
+        <v>6.130108484731839</v>
       </c>
       <c r="J17">
-        <v>7.056979138591172</v>
+        <v>3.59398769981008</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.15261879639971</v>
+        <v>7.947814982706469</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.48380136130296</v>
+        <v>29.57703811226885</v>
       </c>
       <c r="C18">
-        <v>12.68129344220677</v>
+        <v>21.34733045652909</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>27.43736334664263</v>
+        <v>30.74967576548413</v>
       </c>
       <c r="F18">
-        <v>37.92766368388038</v>
+        <v>37.77536451025178</v>
       </c>
       <c r="G18">
-        <v>15.97298817162604</v>
+        <v>12.11671455991092</v>
       </c>
       <c r="H18">
-        <v>11.10789283005466</v>
+        <v>5.518990766655399</v>
       </c>
       <c r="I18">
-        <v>14.7589741516594</v>
+        <v>6.247957238585911</v>
       </c>
       <c r="J18">
-        <v>7.063182494566678</v>
+        <v>3.610263966101443</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.18200412679897</v>
+        <v>7.96724000958441</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.41759990802797</v>
+        <v>29.45429517536719</v>
       </c>
       <c r="C19">
-        <v>12.63449415983349</v>
+        <v>21.26215492167411</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27.40566856434466</v>
+        <v>30.62691255930342</v>
       </c>
       <c r="F19">
-        <v>37.90602670366069</v>
+        <v>37.63314542049564</v>
       </c>
       <c r="G19">
-        <v>15.98526151214902</v>
+        <v>12.07568211240264</v>
       </c>
       <c r="H19">
-        <v>11.11346747121408</v>
+        <v>5.530026716100322</v>
       </c>
       <c r="I19">
-        <v>14.77153418989463</v>
+        <v>6.287953693954506</v>
       </c>
       <c r="J19">
-        <v>7.065298070188154</v>
+        <v>3.615804676063132</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.19204713336427</v>
+        <v>7.974363250260025</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.71343628494787</v>
+        <v>30.00285805388633</v>
       </c>
       <c r="C20">
-        <v>12.84365247472219</v>
+        <v>21.64291597364919</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27.54834748457822</v>
+        <v>31.1769155297185</v>
       </c>
       <c r="F20">
-        <v>38.00410407750842</v>
+        <v>38.27211704130404</v>
       </c>
       <c r="G20">
-        <v>15.93089016937915</v>
+        <v>12.26425831017758</v>
       </c>
       <c r="H20">
-        <v>11.08855475307515</v>
+        <v>5.481027168642063</v>
       </c>
       <c r="I20">
-        <v>14.71532641669293</v>
+        <v>6.108342049978164</v>
       </c>
       <c r="J20">
-        <v>7.055838265817223</v>
+        <v>3.590989565132149</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.14722475160665</v>
+        <v>7.944483291773554</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.67090648174124</v>
+        <v>31.77982796687147</v>
       </c>
       <c r="C21">
-        <v>13.52100307401846</v>
+        <v>22.87785466192171</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>28.02818264371713</v>
+        <v>32.98201482280368</v>
       </c>
       <c r="F21">
-        <v>38.3457935491705</v>
+        <v>40.40042174450713</v>
       </c>
       <c r="G21">
-        <v>15.76345462441722</v>
+        <v>13.10879510732959</v>
       </c>
       <c r="H21">
-        <v>11.00789380959336</v>
+        <v>5.328781011127546</v>
       </c>
       <c r="I21">
-        <v>14.53195367866847</v>
+        <v>5.51127030588349</v>
       </c>
       <c r="J21">
-        <v>7.025111911163284</v>
+        <v>3.509729537921277</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.00316733208366</v>
+        <v>7.88448681102067</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.26932069822082</v>
+        <v>32.8922455947489</v>
       </c>
       <c r="C22">
-        <v>13.9446324007388</v>
+        <v>23.65199002575392</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.34164002044952</v>
+        <v>34.12991223909505</v>
       </c>
       <c r="F22">
-        <v>38.57787547860512</v>
+        <v>41.7771641324836</v>
       </c>
       <c r="G22">
-        <v>15.6656222713431</v>
+        <v>13.73302119981948</v>
       </c>
       <c r="H22">
-        <v>10.95744623181193</v>
+        <v>5.239525871415588</v>
       </c>
       <c r="I22">
-        <v>14.41617497939826</v>
+        <v>5.125610541800661</v>
       </c>
       <c r="J22">
-        <v>7.005816275852853</v>
+        <v>3.458250860742416</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.91392259948948</v>
+        <v>7.878158231991927</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.95244593412907</v>
+        <v>32.30298118542284</v>
       </c>
       <c r="C23">
-        <v>13.72028468892436</v>
+        <v>23.24182804717438</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>28.17438547521919</v>
+        <v>33.52015794730529</v>
       </c>
       <c r="F23">
-        <v>38.45322630834846</v>
+        <v>41.04368554034739</v>
       </c>
       <c r="G23">
-        <v>15.71676114245119</v>
+        <v>13.39687097396186</v>
       </c>
       <c r="H23">
-        <v>10.98416333362951</v>
+        <v>5.28615592778113</v>
       </c>
       <c r="I23">
-        <v>14.47759727352392</v>
+        <v>5.331038272630663</v>
       </c>
       <c r="J23">
-        <v>7.016042957577954</v>
+        <v>3.485573111930893</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.96110333764438</v>
+        <v>7.87835264932259</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.6973272461799</v>
+        <v>29.97298320789076</v>
       </c>
       <c r="C24">
-        <v>12.83226163850307</v>
+        <v>21.62217348234898</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>27.54050929558542</v>
+        <v>31.1468730460676</v>
       </c>
       <c r="F24">
-        <v>37.99867164508593</v>
+        <v>38.23709601916573</v>
       </c>
       <c r="G24">
-        <v>15.93381923021146</v>
+        <v>12.2536446620428</v>
       </c>
       <c r="H24">
-        <v>11.08991139836833</v>
+        <v>5.48367380915118</v>
       </c>
       <c r="I24">
-        <v>14.71839242927098</v>
+        <v>6.118180791935659</v>
       </c>
       <c r="J24">
-        <v>7.056353769841622</v>
+        <v>3.592344453872091</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.14966165753658</v>
+        <v>7.945979357804821</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.22712629304014</v>
+        <v>27.24743924945244</v>
       </c>
       <c r="C25">
-        <v>11.79352313188887</v>
+        <v>19.7330699740048</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>26.85929520980517</v>
+        <v>28.45025511583388</v>
       </c>
       <c r="F25">
-        <v>37.54788349597856</v>
+        <v>35.15225099015041</v>
       </c>
       <c r="G25">
-        <v>16.21622010880894</v>
+        <v>11.45364347745067</v>
       </c>
       <c r="H25">
-        <v>11.21371088856975</v>
+        <v>5.73445359169646</v>
       </c>
       <c r="I25">
-        <v>14.99569451517753</v>
+        <v>6.988276560628756</v>
       </c>
       <c r="J25">
-        <v>7.103223774195043</v>
+        <v>3.714194956752564</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.37391439266611</v>
+        <v>8.142014618557738</v>
       </c>
     </row>
   </sheetData>
